--- a/Progress_Tracking_sheet_hopur7F.xlsx
+++ b/Progress_Tracking_sheet_hopur7F.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gudmu\Desktop\Skoli\throunhugb\verkefni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gudmu\Desktop\Skoli\throunhugb\Flight-Search-Hopur-7F-2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -637,7 +637,7 @@
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3">
         <v>7</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
         <v>8</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3">
         <v>9</v>
@@ -721,7 +721,7 @@
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="3">
         <v>10</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3">
         <v>11</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="3">
         <v>12</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="3">
         <v>13</v>
